--- a/2500 - DiPofi, Dominic.xlsx
+++ b/2500 - DiPofi, Dominic.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0653e9e8991524/Documents/Classes/LinDataSTRC/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{6788D257-99E1-4CEA-91B2-7F6D15E693B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE8E25B8-245B-4C2C-B535-0F0281EC712B}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{6788D257-99E1-4CEA-91B2-7F6D15E693B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1CF93041-8AEA-44E3-BC27-DF20CF2A5F80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{612F62F2-CF27-45EF-9BA4-CBB133109090}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Run Time for 4 Lists (H, B, W)" sheetId="2" r:id="rId2"/>
+    <sheet name="Run Time vs Vocab for List 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Run Time vs Key Comp for Hamlet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Key Comp</t>
   </si>
@@ -76,6 +79,42 @@
   </si>
   <si>
     <t>War and Peace</t>
+  </si>
+  <si>
+    <t>1H</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>3W</t>
+  </si>
+  <si>
+    <t>4W</t>
   </si>
 </sst>
 </file>
@@ -143,6 +182,3156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time for 4 Lists for Hamlet, Bleak House, War and Peace</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1H</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2H</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3H</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4H</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1W</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2W</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3W</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4W</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.743000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.963000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.359000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD21-45FA-A5F5-609A7E26666F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="550712047"/>
+        <c:axId val="550697487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="550712047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>List</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550697487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550697487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550712047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Time vs Vocabulary for List 1 for 3 txt files</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vocabulary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Data!$D$3,Data!$D$7,Data!$D$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.743000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.643000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Data!$E$3,Data!$E$7,Data!$E$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48C6-4C76-952E-D8D33E67E1FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544444271"/>
+        <c:axId val="544443855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544444271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544443855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544443855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vocabulary</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544444271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run Time vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Key Comps for Hamlet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Key Comp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Data!$D$3,Data!$D$4,Data!$D$5,Data!$D$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0229999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Data!$G$3,Data!$G$4,Data!$G$5,Data!$G$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80116080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48831609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20511561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77134244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C95-4CDA-A19F-F684A457167F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="437937855"/>
+        <c:axId val="437936191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="437937855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437936191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437936191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Key comps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437937855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{584CFFAD-DE03-4D83-B784-450007249840}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{880EE1E9-A3E5-4A6B-AB76-08392C71F28D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{735A46C4-9E24-464C-8110-F2DDAE374088}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC793CB7-0684-4F9D-AFF4-5089E1946FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC70A448-C2A0-4498-99B6-DE91A96078CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31FC36C-89D8-4420-83BF-08BB814F8628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,10 +3631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF66162F-62E8-4BFF-849A-72621D5831F7}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,9 +3644,6 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -481,8 +3667,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -504,8 +3693,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -527,8 +3716,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -550,8 +3739,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -572,241 +3761,208 @@
         <v>90965</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>36.743000000000002</v>
+      </c>
+      <c r="E7">
+        <v>17947</v>
+      </c>
+      <c r="F7">
+        <v>353461</v>
+      </c>
+      <c r="G7">
+        <v>3864805384</v>
+      </c>
+      <c r="H7">
+        <v>35882</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>25.262</v>
+      </c>
+      <c r="E8">
+        <v>17947</v>
+      </c>
+      <c r="F8">
+        <v>353461</v>
+      </c>
+      <c r="G8">
+        <v>2271614447</v>
+      </c>
+      <c r="H8">
+        <v>35882</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>36.743000000000002</v>
+        <v>5.8819999999999997</v>
       </c>
       <c r="E9">
-        <v>17941</v>
+        <v>17947</v>
       </c>
       <c r="F9">
-        <v>353455</v>
+        <v>353461</v>
       </c>
       <c r="G9">
-        <v>3864805384</v>
+        <v>428180670</v>
       </c>
       <c r="H9">
-        <v>35882</v>
+        <v>1040960</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>2</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>25.262</v>
+        <v>39.963000000000001</v>
       </c>
       <c r="E10">
-        <v>17941</v>
+        <v>17947</v>
       </c>
       <c r="F10">
-        <v>353455</v>
+        <v>353461</v>
       </c>
       <c r="G10">
-        <v>2271614447</v>
+        <v>3364682624</v>
       </c>
       <c r="H10">
-        <v>35882</v>
+        <v>1041548</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>3</v>
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>5.8819999999999997</v>
+        <v>48.643000000000001</v>
       </c>
       <c r="E11">
-        <v>17941</v>
+        <v>20327</v>
       </c>
       <c r="F11">
-        <v>353455</v>
+        <v>563023</v>
       </c>
       <c r="G11">
-        <v>428180670</v>
+        <v>6738758767</v>
       </c>
       <c r="H11">
-        <v>1040960</v>
+        <v>40470</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>39.963000000000001</v>
+        <v>38.359000000000002</v>
       </c>
       <c r="E12">
-        <v>17941</v>
+        <v>20327</v>
       </c>
       <c r="F12">
-        <v>353455</v>
+        <v>563023</v>
       </c>
       <c r="G12">
-        <v>3364682624</v>
+        <v>3982656802</v>
       </c>
       <c r="H12">
-        <v>1041548</v>
+        <v>40470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>8.7080000000000002</v>
+      </c>
+      <c r="E13">
+        <v>20327</v>
+      </c>
+      <c r="F13">
+        <v>563023</v>
+      </c>
+      <c r="G13">
+        <v>654493106</v>
+      </c>
+      <c r="H13">
+        <v>1665945</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>48.643000000000001</v>
-      </c>
-      <c r="E15">
-        <v>20235</v>
-      </c>
-      <c r="F15">
-        <v>562689</v>
-      </c>
-      <c r="G15">
-        <v>6738758767</v>
-      </c>
-      <c r="H15">
-        <v>40470</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>54.13</v>
+      </c>
+      <c r="E14">
+        <v>20327</v>
+      </c>
+      <c r="F14">
+        <v>563023</v>
+      </c>
+      <c r="G14">
+        <v>5378251682</v>
+      </c>
+      <c r="H14">
+        <v>1624746</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>38.359000000000002</v>
-      </c>
-      <c r="E16">
-        <v>20235</v>
-      </c>
-      <c r="F16">
-        <v>562689</v>
-      </c>
-      <c r="G16">
-        <v>3982656802</v>
-      </c>
-      <c r="H16">
-        <v>40470</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>8.7080000000000002</v>
-      </c>
-      <c r="E17">
-        <v>20235</v>
-      </c>
-      <c r="F17">
-        <v>562689</v>
-      </c>
-      <c r="G17">
-        <v>654493106</v>
-      </c>
-      <c r="H17">
-        <v>1665945</v>
-      </c>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>54.13</v>
-      </c>
-      <c r="E18">
-        <v>20235</v>
-      </c>
-      <c r="F18">
-        <v>562689</v>
-      </c>
-      <c r="G18">
-        <v>5378251682</v>
-      </c>
-      <c r="H18">
-        <v>1624746</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2500 - DiPofi, Dominic.xlsx
+++ b/2500 - DiPofi, Dominic.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0653e9e8991524/Documents/Classes/LinDataSTRC/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{6788D257-99E1-4CEA-91B2-7F6D15E693B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1CF93041-8AEA-44E3-BC27-DF20CF2A5F80}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{6788D257-99E1-4CEA-91B2-7F6D15E693B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA4A930E-34AC-435C-BFE6-37AFFD121710}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{612F62F2-CF27-45EF-9BA4-CBB133109090}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{612F62F2-CF27-45EF-9BA4-CBB133109090}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Run Time for 4 Lists (H, B, W)" sheetId="2" r:id="rId2"/>
+    <sheet name="Run Time for 6 Lists (H, B, W)" sheetId="2" r:id="rId2"/>
     <sheet name="Run Time vs Vocab for List 1" sheetId="3" r:id="rId3"/>
     <sheet name="Run Time vs Key Comp for Hamlet" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Key Comp</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>4W</t>
+  </si>
+  <si>
+    <t>2aH</t>
+  </si>
+  <si>
+    <t>2aB</t>
+  </si>
+  <si>
+    <t>2aW</t>
+  </si>
+  <si>
+    <t>5H</t>
+  </si>
+  <si>
+    <t>5W</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>Sorted Modified</t>
+  </si>
+  <si>
+    <t>Skip List</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -223,7 +250,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time for 4 Lists for Hamlet, Bleak House, War and Peace</a:t>
+              <a:t> Time for 6 Lists for Hamlet, Bleak House, War and Peace</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -280,9 +307,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$3:$B$14</c:f>
+              <c:f>Data!$B$3:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1H</c:v>
                 </c:pt>
@@ -290,44 +317,62 @@
                   <c:v>2H</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2aH</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3H</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4H</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>5H</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1B</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2B</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>2aB</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3B</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>4B</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>5B</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1W</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>2W</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>2aW</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3W</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>4W</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5W</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$3:$D$14</c:f>
+              <c:f>Data!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0349999999999999</c:v>
                 </c:pt>
@@ -335,34 +380,52 @@
                   <c:v>0.42899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.254</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.0229999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>36.743000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>25.262</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>20.245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5.8819999999999997</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>39.963000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>48.643000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>38.359000000000002</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>27.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>8.7080000000000002</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>54.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,7 +818,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Data!$D$3,Data!$D$7,Data!$D$11)</c:f>
+              <c:f>(Data!$D$3,Data!$D$9,Data!$D$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -773,7 +836,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Data!$E$3,Data!$E$7,Data!$E$11)</c:f>
+              <c:f>(Data!$E$3,Data!$E$9,Data!$E$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1206,10 +1269,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Data!$D$3,Data!$D$4,Data!$D$5,Data!$D$6)</c:f>
+              <c:f>(Data!$D$3,Data!$D$4,Data!$D$5,Data!$D$6,Data!$D$7,Data!$D$8)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0349999999999999</c:v>
                 </c:pt>
@@ -1217,20 +1280,26 @@
                   <c:v>0.42899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.254</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.0229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Data!$G$3,Data!$G$4,Data!$G$5,Data!$G$6)</c:f>
+              <c:f>(Data!$G$3,Data!$G$4,Data!$G$5,Data!$G$6,Data!$G$7,Data!$G$8)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>80116080</c:v>
                 </c:pt>
@@ -1238,10 +1307,16 @@
                   <c:v>48831609</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>32730336</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20511561</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>77134244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>635042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,7 +3281,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{584CFFAD-DE03-4D83-B784-450007249840}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3631,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF66162F-62E8-4BFF-849A-72621D5831F7}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3643,7 +3718,7 @@
     <col min="3" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3665,8 +3740,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3692,7 +3770,7 @@
         <v>9608</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -3715,15 +3793,15 @@
         <v>9608</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>0.254</v>
+        <v>0.432</v>
       </c>
       <c r="E5">
         <v>4804</v>
@@ -3732,21 +3810,21 @@
         <v>31991</v>
       </c>
       <c r="G5">
-        <v>20511561</v>
+        <v>32730336</v>
       </c>
       <c r="H5">
-        <v>90800</v>
+        <v>9608</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>1.0229999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="E6">
         <v>4804</v>
@@ -3755,70 +3833,73 @@
         <v>31991</v>
       </c>
       <c r="G6">
+        <v>20511561</v>
+      </c>
+      <c r="H6">
+        <v>90800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E7">
+        <v>4804</v>
+      </c>
+      <c r="F7">
+        <v>31991</v>
+      </c>
+      <c r="G7">
         <v>77134244</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>90965</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>4804</v>
+      </c>
+      <c r="F8">
+        <v>31991</v>
+      </c>
+      <c r="G8">
+        <v>635042</v>
+      </c>
+      <c r="H8">
+        <v>57102</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>36.743000000000002</v>
-      </c>
-      <c r="E7">
-        <v>17947</v>
-      </c>
-      <c r="F7">
-        <v>353461</v>
-      </c>
-      <c r="G7">
-        <v>3864805384</v>
-      </c>
-      <c r="H7">
-        <v>35882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>25.262</v>
-      </c>
-      <c r="E8">
-        <v>17947</v>
-      </c>
-      <c r="F8">
-        <v>353461</v>
-      </c>
-      <c r="G8">
-        <v>2271614447</v>
-      </c>
-      <c r="H8">
-        <v>35882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>5.8819999999999997</v>
       </c>
       <c r="E9">
         <v>17947</v>
@@ -3827,21 +3908,21 @@
         <v>353461</v>
       </c>
       <c r="G9">
-        <v>428180670</v>
+        <v>3864805384</v>
       </c>
       <c r="H9">
-        <v>1040960</v>
+        <v>35882</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>39.963000000000001</v>
+        <v>25.262</v>
       </c>
       <c r="E10">
         <v>17947</v>
@@ -3850,119 +3931,263 @@
         <v>353461</v>
       </c>
       <c r="G10">
+        <v>2271614447</v>
+      </c>
+      <c r="H10">
+        <v>35882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>20.245000000000001</v>
+      </c>
+      <c r="E11">
+        <v>17947</v>
+      </c>
+      <c r="F11">
+        <v>353461</v>
+      </c>
+      <c r="G11">
+        <v>1544987797</v>
+      </c>
+      <c r="H11">
+        <v>35882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>5.8819999999999997</v>
+      </c>
+      <c r="E12">
+        <v>17947</v>
+      </c>
+      <c r="F12">
+        <v>353461</v>
+      </c>
+      <c r="G12">
+        <v>428180670</v>
+      </c>
+      <c r="H12">
+        <v>1040960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>39.963000000000001</v>
+      </c>
+      <c r="E13">
+        <v>17947</v>
+      </c>
+      <c r="F13">
+        <v>353461</v>
+      </c>
+      <c r="G13">
         <v>3364682624</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <v>1041548</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>0.111</v>
+      </c>
+      <c r="E14">
+        <v>17947</v>
+      </c>
+      <c r="F14">
+        <v>353461</v>
+      </c>
+      <c r="G14">
+        <v>8609758</v>
+      </c>
+      <c r="H14">
+        <v>216101</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>48.643000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>20327</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>563023</v>
       </c>
-      <c r="G11">
+      <c r="G15">
         <v>6738758767</v>
       </c>
-      <c r="H11">
+      <c r="H15">
         <v>40470</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <v>38.359000000000002</v>
       </c>
-      <c r="E12">
+      <c r="E16">
         <v>20327</v>
       </c>
-      <c r="F12">
+      <c r="F16">
         <v>563023</v>
       </c>
-      <c r="G12">
+      <c r="G16">
         <v>3982656802</v>
       </c>
-      <c r="H12">
+      <c r="H16">
         <v>40470</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>27.271000000000001</v>
+      </c>
+      <c r="E17">
+        <v>20327</v>
+      </c>
+      <c r="F17">
+        <v>563023</v>
+      </c>
+      <c r="G17">
+        <v>2747648070</v>
+      </c>
+      <c r="H17">
+        <v>40470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D18">
         <v>8.7080000000000002</v>
       </c>
-      <c r="E13">
+      <c r="E18">
         <v>20327</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>563023</v>
       </c>
-      <c r="G13">
+      <c r="G18">
         <v>654493106</v>
       </c>
-      <c r="H13">
+      <c r="H18">
         <v>1665945</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D19">
         <v>54.13</v>
       </c>
-      <c r="E14">
+      <c r="E19">
         <v>20327</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>563023</v>
       </c>
-      <c r="G14">
+      <c r="G19">
         <v>5378251682</v>
       </c>
-      <c r="H14">
+      <c r="H19">
         <v>1624746</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>0.17</v>
+      </c>
+      <c r="E20">
+        <v>20327</v>
+      </c>
+      <c r="F20">
+        <v>563023</v>
+      </c>
+      <c r="G20">
+        <v>15369920</v>
+      </c>
+      <c r="H20">
+        <v>243253</v>
+      </c>
+      <c r="I20">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2500 - DiPofi, Dominic.xlsx
+++ b/2500 - DiPofi, Dominic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0653e9e8991524/Documents/Classes/LinDataSTRC/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{6788D257-99E1-4CEA-91B2-7F6D15E693B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA4A930E-34AC-435C-BFE6-37AFFD121710}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{6788D257-99E1-4CEA-91B2-7F6D15E693B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72BA3D72-5157-465B-98E8-2501C60FE55E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{612F62F2-CF27-45EF-9BA4-CBB133109090}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{612F62F2-CF27-45EF-9BA4-CBB133109090}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Key Comp</t>
   </si>
@@ -142,6 +142,30 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Hash 1</t>
+  </si>
+  <si>
+    <t>Hash 2</t>
+  </si>
+  <si>
+    <t>Hash 3</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -307,9 +331,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$3:$B$20</c:f>
+              <c:f>Data!$B$3:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1H</c:v>
                 </c:pt>
@@ -329,39 +353,63 @@
                   <c:v>5H</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>H1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1B</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2B</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>2aB</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>3B</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>4B</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>5B</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>H1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>H3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1W</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>2W</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>2aW</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>3W</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>4W</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>5W</c:v>
                 </c:pt>
               </c:strCache>
@@ -369,10 +417,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$3:$D$20</c:f>
+              <c:f>Data!$D$3:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0349999999999999</c:v>
                 </c:pt>
@@ -391,40 +439,40 @@
                 <c:pt idx="5">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>36.743000000000002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>25.262</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>20.245000000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>5.8819999999999997</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>39.963000000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>0.111</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>48.643000000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>38.359000000000002</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>27.271000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>8.7080000000000002</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>54.13</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>0.17</c:v>
                 </c:pt>
               </c:numCache>
@@ -818,7 +866,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(Data!$D$3,Data!$D$9,Data!$D$15)</c:f>
+              <c:f>(Data!$D$3,Data!$D$13,Data!$D$23)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -836,7 +884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Data!$E$3,Data!$E$9,Data!$E$15)</c:f>
+              <c:f>(Data!$E$3,Data!$E$13,Data!$E$23)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3281,7 +3329,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{584CFFAD-DE03-4D83-B784-450007249840}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3706,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF66162F-62E8-4BFF-849A-72621D5831F7}">
-  <dimension ref="A2:I24"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3889,109 +3937,73 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>36.743000000000002</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>17947</v>
+        <v>4804</v>
       </c>
       <c r="F9">
-        <v>353461</v>
-      </c>
-      <c r="G9">
-        <v>3864805384</v>
-      </c>
-      <c r="H9">
-        <v>35882</v>
+        <v>31991</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>25.262</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>17947</v>
+        <v>4804</v>
       </c>
       <c r="F10">
-        <v>353461</v>
-      </c>
-      <c r="G10">
-        <v>2271614447</v>
-      </c>
-      <c r="H10">
-        <v>35882</v>
+        <v>31991</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>20.245000000000001</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>17947</v>
+        <v>4804</v>
       </c>
       <c r="F11">
-        <v>353461</v>
-      </c>
-      <c r="G11">
-        <v>1544987797</v>
-      </c>
-      <c r="H11">
-        <v>35882</v>
+        <v>31991</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>5.8819999999999997</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>17947</v>
+        <v>4804</v>
       </c>
       <c r="F12">
-        <v>353461</v>
-      </c>
-      <c r="G12">
-        <v>428180670</v>
-      </c>
-      <c r="H12">
-        <v>1040960</v>
+        <v>31991</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>39.963000000000001</v>
+        <v>36.743000000000002</v>
       </c>
       <c r="E13">
         <v>17947</v>
@@ -4000,21 +4012,21 @@
         <v>353461</v>
       </c>
       <c r="G13">
-        <v>3364682624</v>
+        <v>3864805384</v>
       </c>
       <c r="H13">
-        <v>1041548</v>
+        <v>35882</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>0.111</v>
+        <v>25.262</v>
       </c>
       <c r="E14">
         <v>17947</v>
@@ -4023,171 +4035,365 @@
         <v>353461</v>
       </c>
       <c r="G14">
-        <v>8609758</v>
+        <v>2271614447</v>
       </c>
       <c r="H14">
-        <v>216101</v>
-      </c>
-      <c r="I14">
-        <v>16</v>
+        <v>35882</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>48.643000000000001</v>
+        <v>20.245000000000001</v>
       </c>
       <c r="E15">
-        <v>20327</v>
+        <v>17947</v>
       </c>
       <c r="F15">
-        <v>563023</v>
+        <v>353461</v>
       </c>
       <c r="G15">
-        <v>6738758767</v>
+        <v>1544987797</v>
       </c>
       <c r="H15">
-        <v>40470</v>
+        <v>35882</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>38.359000000000002</v>
+        <v>5.8819999999999997</v>
       </c>
       <c r="E16">
-        <v>20327</v>
+        <v>17947</v>
       </c>
       <c r="F16">
-        <v>563023</v>
+        <v>353461</v>
       </c>
       <c r="G16">
-        <v>3982656802</v>
+        <v>428180670</v>
       </c>
       <c r="H16">
-        <v>40470</v>
+        <v>1040960</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>27.271000000000001</v>
+        <v>39.963000000000001</v>
       </c>
       <c r="E17">
-        <v>20327</v>
+        <v>17947</v>
       </c>
       <c r="F17">
-        <v>563023</v>
+        <v>353461</v>
       </c>
       <c r="G17">
-        <v>2747648070</v>
+        <v>3364682624</v>
       </c>
       <c r="H17">
-        <v>40470</v>
+        <v>1041548</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>8.7080000000000002</v>
+        <v>0.111</v>
       </c>
       <c r="E18">
-        <v>20327</v>
+        <v>17947</v>
       </c>
       <c r="F18">
-        <v>563023</v>
+        <v>353461</v>
       </c>
       <c r="G18">
-        <v>654493106</v>
+        <v>8609758</v>
       </c>
       <c r="H18">
-        <v>1665945</v>
+        <v>216101</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>54.13</v>
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>20327</v>
+        <v>17947</v>
       </c>
       <c r="F19">
-        <v>563023</v>
-      </c>
-      <c r="G19">
-        <v>5378251682</v>
-      </c>
-      <c r="H19">
-        <v>1624746</v>
+        <v>353461</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>0.17</v>
+        <v>40</v>
       </c>
       <c r="E20">
-        <v>20327</v>
+        <v>17947</v>
       </c>
       <c r="F20">
-        <v>563023</v>
-      </c>
-      <c r="G20">
-        <v>15369920</v>
-      </c>
-      <c r="H20">
-        <v>243253</v>
-      </c>
-      <c r="I20">
-        <v>24</v>
+        <v>353461</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>17947</v>
+      </c>
+      <c r="F21">
+        <v>353461</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>17947</v>
+      </c>
+      <c r="F22">
+        <v>353461</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>48.643000000000001</v>
+      </c>
+      <c r="E23">
+        <v>20327</v>
+      </c>
+      <c r="F23">
+        <v>563023</v>
+      </c>
+      <c r="G23">
+        <v>6738758767</v>
+      </c>
+      <c r="H23">
+        <v>40470</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>38.359000000000002</v>
+      </c>
+      <c r="E24">
+        <v>20327</v>
+      </c>
+      <c r="F24">
+        <v>563023</v>
+      </c>
+      <c r="G24">
+        <v>3982656802</v>
+      </c>
+      <c r="H24">
+        <v>40470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>27.271000000000001</v>
+      </c>
+      <c r="E25">
+        <v>20327</v>
+      </c>
+      <c r="F25">
+        <v>563023</v>
+      </c>
+      <c r="G25">
+        <v>2747648070</v>
+      </c>
+      <c r="H25">
+        <v>40470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>8.7080000000000002</v>
+      </c>
+      <c r="E26">
+        <v>20327</v>
+      </c>
+      <c r="F26">
+        <v>563023</v>
+      </c>
+      <c r="G26">
+        <v>654493106</v>
+      </c>
+      <c r="H26">
+        <v>1665945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>54.13</v>
+      </c>
+      <c r="E27">
+        <v>20327</v>
+      </c>
+      <c r="F27">
+        <v>563023</v>
+      </c>
+      <c r="G27">
+        <v>5378251682</v>
+      </c>
+      <c r="H27">
+        <v>1624746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>0.17</v>
+      </c>
+      <c r="E28">
+        <v>20327</v>
+      </c>
+      <c r="F28">
+        <v>563023</v>
+      </c>
+      <c r="G28">
+        <v>15369920</v>
+      </c>
+      <c r="H28">
+        <v>243253</v>
+      </c>
+      <c r="I28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>20327</v>
+      </c>
+      <c r="F29">
+        <v>563023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>20327</v>
+      </c>
+      <c r="F30">
+        <v>563023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>20327</v>
+      </c>
+      <c r="F31">
+        <v>563023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>20327</v>
+      </c>
+      <c r="F32">
+        <v>563023</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
